--- a/medicine/Psychotrope/Vigne_des_rivages/Vigne_des_rivages.xlsx
+++ b/medicine/Psychotrope/Vigne_des_rivages/Vigne_des_rivages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vitis riparia
-La vigne des rivages[1] (Vitis riparia Michx.) est une espèce d'arbrisseaux sarmenteux de la famille des Vitaceae. Elle est cultivée pour ses fruits en grappes. Elle peut atteindre des grandes hauteurs de 10 à 20 m grâce à ses longs rameaux. C'est la vigne américaine dont la distribution géographique est la plus étendue, on la trouve aussi bien au sud du Canada qu'en Oklahoma et en Arkansas.
+La vigne des rivages (Vitis riparia Michx.) est une espèce d'arbrisseaux sarmenteux de la famille des Vitaceae. Elle est cultivée pour ses fruits en grappes. Elle peut atteindre des grandes hauteurs de 10 à 20 m grâce à ses longs rameaux. C'est la vigne américaine dont la distribution géographique est la plus étendue, on la trouve aussi bien au sud du Canada qu'en Oklahoma et en Arkansas.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Cultivars et hybridation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>De nombreux croisements ont été réalisés avec des espèces américaines (Vitis rupestris, Vitis berlandieri, ...) pour obtenir des porte-greffes ou des hybrides. Certains hybrides font encore l'objet d'une culture importante :
 Noah[réf. nécessaire]
@@ -547,7 +561,9 @@
           <t>Noms viticoles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Vitis riparia est connu les différents noms communs de « August grape, Bermuda vine,
 Frost grape, June  grape, Maple leaved Canadian grape, Mignonette vine, Riverbank, River grape, Riverside grape, Scented grape, Sweet scented grape, Uferrebe, Winter grape » ou encore « Vigne des Battures »
